--- a/V&V/RequirementsReview.xlsx
+++ b/V&V/RequirementsReview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/23099635_student_uwa_edu_au/Documents/Documents/Uni/Units/2025 S2/ELEC5552 Electric and Electronic Engineering Design Project/design-project-flight-controller/V&amp;V/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\OneDrive - UWA\Documents\Uni\Units\2025 S2\ELEC5552 Electric and Electronic Engineering Design Project\design-project-flight-controller\V&amp;V\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="340" documentId="11_4DD0FDD7AB2BD62763BC49898E4DF9803F5F0852" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A1ACD6B-D4F5-4495-99B7-7208CF223E4B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB18216C-6302-44AA-A524-B33775A79813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1326,13 +1326,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N67" sqref="N67"/>
+      <selection pane="bottomRight" activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1344,7 +1344,7 @@
     <col min="5" max="5" width="30.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1387,7 @@
       <c r="D3" s="36"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:8" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="281.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="179.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="153.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>27</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>33</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1651,7 +1651,7 @@
       <c r="D19" s="37"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>40</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>44</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="179.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>50</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>54</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>56</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>58</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>60</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>66</v>
       </c>
@@ -1889,279 +1889,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G35">
-        <v>50</v>
-      </c>
-      <c r="H35">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G37">
-        <v>60</v>
-      </c>
-      <c r="H37">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G39">
-        <v>50</v>
-      </c>
-      <c r="H39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J40">
-        <v>50</v>
-      </c>
-      <c r="K40">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G41">
-        <v>75</v>
-      </c>
-      <c r="H41">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J42">
-        <v>60</v>
-      </c>
-      <c r="K42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G43">
-        <v>50</v>
-      </c>
-      <c r="H43">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J44">
-        <v>50</v>
-      </c>
-      <c r="K44">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G45">
-        <v>20</v>
-      </c>
-      <c r="H45">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J46">
-        <v>70</v>
-      </c>
-      <c r="K46">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G47">
-        <v>90</v>
-      </c>
-      <c r="H47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J48">
-        <v>50</v>
-      </c>
-      <c r="K48">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G49">
-        <v>40</v>
-      </c>
-      <c r="H49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="J50">
-        <v>20</v>
-      </c>
-      <c r="K50">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G51">
-        <v>50</v>
-      </c>
-      <c r="H51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="J52">
-        <v>90</v>
-      </c>
-      <c r="K52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G53">
-        <v>15</v>
-      </c>
-      <c r="H53">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="J54">
-        <v>40</v>
-      </c>
-      <c r="K54">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G55">
-        <v>80</v>
-      </c>
-      <c r="H55">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="J56">
-        <v>20</v>
-      </c>
-      <c r="K56">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G57">
-        <v>20</v>
-      </c>
-      <c r="H57">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="J58">
-        <v>50</v>
-      </c>
-      <c r="K58">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G59">
-        <v>50</v>
-      </c>
-      <c r="H59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="J60">
-        <v>15</v>
-      </c>
-      <c r="K60">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G61">
-        <v>80</v>
-      </c>
-      <c r="H61">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G63">
-        <v>55</v>
-      </c>
-      <c r="H63">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="J64">
-        <v>80</v>
-      </c>
-      <c r="K64">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G65">
-        <f>SUM(G35:G63)</f>
-        <v>785</v>
-      </c>
-      <c r="H65">
-        <f>SUM(H35:H63)</f>
-        <v>715</v>
-      </c>
-    </row>
-    <row r="66" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G66">
-        <f>(H65/G65)</f>
-        <v>0.91082802547770703</v>
-      </c>
-      <c r="J66">
-        <v>20</v>
-      </c>
-      <c r="K66">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="J68">
-        <v>50</v>
-      </c>
-      <c r="K68">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="J70">
-        <v>80</v>
-      </c>
-      <c r="K70">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="J72">
-        <v>55</v>
-      </c>
-      <c r="K72">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="J73">
-        <f>SUM(J39:J72)</f>
-        <v>800</v>
-      </c>
-      <c r="K73">
-        <f>SUM(K40:K72)</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="75" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J75" t="s">
         <v>107</v>
       </c>
@@ -2189,15 +1917,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="bddbf6fc-b0a8-4265-904d-44487caf4b4b">
@@ -2207,7 +1926,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085F7451165B11F44AFD23AC87B003BAA" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeb3d5cd4f1942ffc01998984d3c152e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bddbf6fc-b0a8-4265-904d-44487caf4b4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60580194d841e796fe96f6a806405d56" ns2:_="">
     <xsd:import namespace="bddbf6fc-b0a8-4265-904d-44487caf4b4b"/>
@@ -2379,15 +2098,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01105812-EE39-4C35-8744-508131C952F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D01314-0BFB-45A8-BE4C-DD5ABEBB7008}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2397,7 +2117,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{579B6715-A4BA-44EE-A905-8498807319F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2413,4 +2133,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01105812-EE39-4C35-8744-508131C952F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/V&V/RequirementsReview.xlsx
+++ b/V&V/RequirementsReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\OneDrive - UWA\Documents\Uni\Units\2025 S2\ELEC5552 Electric and Electronic Engineering Design Project\design-project-flight-controller\V&amp;V\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB18216C-6302-44AA-A524-B33775A79813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C70C2429-1536-46A4-AA5B-888B0DB74063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -857,15 +857,6 @@
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -876,95 +867,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1329,563 +1329,563 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M42" sqref="M42"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="166.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:8" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="25" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="25" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="24" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="25" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="25" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="31" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="1:5" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="25" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="25" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="25" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="25" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="25" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="25" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1917,13 +1917,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bddbf6fc-b0a8-4265-904d-44487caf4b4b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2099,20 +2098,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bddbf6fc-b0a8-4265-904d-44487caf4b4b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D01314-0BFB-45A8-BE4C-DD5ABEBB7008}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01105812-EE39-4C35-8744-508131C952F3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bddbf6fc-b0a8-4265-904d-44487caf4b4b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2136,9 +2134,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01105812-EE39-4C35-8744-508131C952F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D01314-0BFB-45A8-BE4C-DD5ABEBB7008}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bddbf6fc-b0a8-4265-904d-44487caf4b4b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>